--- a/IMDB_website/IMDB_Top_250_Movies.xlsx
+++ b/IMDB_website/IMDB_Top_250_Movies.xlsx
@@ -2226,7 +2226,7 @@
         <v>8.4</v>
       </c>
       <c r="F75" t="n">
-        <v>556000</v>
+        <v>557000</v>
       </c>
     </row>
     <row r="76">
@@ -3771,22 +3771,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Casino</t>
+          <t>Ran</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2h 58m</t>
+          <t>2h 40m</t>
         </is>
       </c>
       <c r="E140" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>546000</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="141">
@@ -3795,22 +3795,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ran</t>
+          <t>Casino</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1985</v>
+        <v>1995</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2h 40m</t>
+          <t>2h 58m</t>
         </is>
       </c>
       <c r="E141" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>132000</v>
+        <v>546000</v>
       </c>
     </row>
     <row r="142">
